--- a/experiments/optics-ajk/instructor-base/0.3/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-base/0.3/prediction.xlsx
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,107 +738,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,67 +848,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,27 +918,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,107 +958,107 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,57 +1078,57 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,17 +1168,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,37 +1188,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,67 +1338,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,57 +1408,57 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,27 +1568,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,47 +1618,47 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,37 +1778,37 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,57 +1838,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,47 +1988,47 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,37 +2038,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,37 +2148,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,17 +2188,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,57 +2208,57 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,1987 +2278,1987 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>121</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>129</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>129</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>140</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>37</v>
+        <v>129</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>128</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>128</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>139</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,1947 +4268,1947 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>133</v>
+        <v>58</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>143</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>148</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>148</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>137</v>
+        <v>85</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>137</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>57</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>3</v>
+        <v>124</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>14</v>
+        <v>134</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>51</v>
+        <v>132</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>53</v>
+        <v>136</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>132</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>132</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>132</v>
+        <v>55</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>147</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>147</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>4</v>
+        <v>138</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6218,21 +6218,21 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
